--- a/spreadsheet/macrofree/azure_arc_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.ja.xlsx
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 対応サーバーのタグ付けストラテリが定義されている</t>
+          <t>Azure Arc 対応サーバーのタグ付け戦略が定義されているか</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>既存のタグ設定に合わせるか、Azure タグ付けの開始を作成することをお勧めします。リソースタグを使用すると、リソースをすばやく見つけ、運用タスクを自動化できます。</t>
+          <t>既存のタグ付け戦略に合わせるか、Azure のタグ付け戦略を作成することをお勧めします。リソースタグを使用すると、リソースをすばやく見つけ、運用タスクを自動化できます。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>サーバー管理に必要なサーバー/リソース グループに RBAC ルールを定義する場合、Azure での Azure Arc 対応サーバーのリソースの管理には、"Azure 接続マシン リソース管理者" または "ハイブリッド サーバー リソース管理者" ロールで十分です。</t>
+          <t>サーバー管理に必要なサーバー/リソース グループに RBAC ルールを定義し、Azure の Azure Arc 対応サーバー リソースの管理には "Azure 接続マシン リソース管理者" または "ハイブリッド サーバー リソース管理者" ロールで十分です。</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>最小特権のプリシプルを使用する</t>
+          <t>最小特権の原則を使用する</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>ユーザーまたはグループには、その役割を実行するために必要な権限のみを追加してください。</t>
+          <t>役割の実行に必要な権限をユーザーまたはグループにのみ追加してください</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Arc 対応サーバーを Azure にオンボードするために必要なサービス プライパルの数</t>
+          <t>Arc 対応サーバーを Azure にオンボードするために必要なサービス プリンシパルの数</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>サーバーの大規模なオンボーディングには、"Azure コネクテッド マシン オンボーディング" ロールを持つサービス原則が必要であり、オンボーディングが異なるチーム/分散管理によって行われる場合は、より多くの SP を検討してください</t>
+          <t>サーバーの大規模なオンボーディングには、"Azure 接続済みマシンのオンボード" ロールを持つサービス プリンシパルが必要であり、オンボーディングが異なるチーム/分散管理によって行われる場合は、より多くの SP を検討してください</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>エージェントプロビジョニングのストリーテジーを定義する</t>
+          <t>エージェント プロビジョニングの戦略を定義する</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Update を使用して、接続されているマシンエージェントが常に最新であることを確認する</t>
+          <t>Microsoft Update を使用して、接続されているマシンエージェントが常に最新であることを確認します。</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>使用可能な場合は自動アップグレードを使用し、自動アップグレードをサポートしていないすべての拡張機能の更新戦略を定義します。</t>
+          <t>利用可能な場合は自動アップグレードを使用し、自動アップグレードをサポートしていないすべての拡張機能の更新戦略を定義します。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>接続されたマシンエージェントは、デフォルトでHTTPS(TCPポート443)を使用したパブリックインターレット接続を介してAzureサービスと通信します</t>
+          <t>接続されたマシンエージェントは、デフォルトでHTTPS(TCPポート443)を使用したパブリックインターネット接続を介してAzureサービスと通信します</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>接続されたマシンエージェントはプロキシサーバーを使用するように構成できますが、ローカルシステムで「azcmagent構成set proxy.url」コマンドを使用してプロキシサーバーのアドレスを定義することをお勧めします。</t>
+          <t>接続されたマシンエージェントはプロキシサーバーを使用するように構成できるため、ローカルシステムで「azcmagent config set proxy.url」コマンドを使用してプロキシサーバーアドレスを定義することをお勧めします。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>問題のシステムで使用可能な自動化ツールを使用して、Azure エンドポイントを再更新する</t>
+          <t>問題のシステムで使用可能な自動化ツールを使用して、Azure エンドポイントを定期的に更新する</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ハイブリッド接続サーバーの政府モデルを実装する</t>
+          <t>Azure Policy を使用してハイブリッド接続サーバーのガバナンス モデルを実装する</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>サーバー上で行われた変更を追跡するために変更追跡を使用するコサイダー</t>
+          <t>サーバー上で行われた変更の追跡に変更の追跡の使用を検討する</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Windows のローカル管理者グループのメンバーと Linux のルート権限を持つユーザーは、コマンドラインを使用してエージェントを管理する権限を持ちます。</t>
+          <t>Windows のローカル管理者グループのメンバーと Linux のルート権限を持つユーザーは、コマンドラインからエージェントを管理する権限を持ちます。</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/azure_arc_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.ja.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1099,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>サーバーを Azure にオンボードするには、1 つ以上のリソース グループが必要です。</t>
+          <t>サーバーを Azure にオンボードするには、1 つ以上のリソース グループが必要です</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1145,12 +1110,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>キャパシティ プランニング</t>
+          <t>キャパシティプランニング</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory オブジェクトの制限を考慮する</t>
+          <t>Azure Active Directory オブジェクトの制限を考慮に入れる</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1196,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>必要なリソース プロバイダーがすべてのサブスクリプションに登録されているか</t>
+          <t>必要なリソース プロバイダーがすべてのサブスクリプションに登録されていますか</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
@@ -1246,12 +1211,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 対応サーバーのタグ付け戦略が定義されているか</t>
+          <t>Azure Arc 対応サーバーのタグ付け戦略が定義されていますか</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>既存のタグ付け戦略に合わせるか、Azure のタグ付け戦略を作成することをお勧めします。リソースタグを使用すると、リソースをすばやく見つけ、運用タスクを自動化できます。</t>
+          <t>既存の Azure タグ付け戦略に合わせるか、Azure タグ付け戦略を作成することをお勧めします。リソースタグを使用すると、すばやく見つけたり、運用タスクを自動化したりできます。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1296,12 +1261,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 対応にする必要があるオペレーティング システム</t>
+          <t>Azure Arc 対応にするために必要なオペレーティング システム</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>接続されたマシンエージェントのインストールは、ほとんどの新しいWindowsおよびLinuxオペレーティングシステムでサポートされており、リンクを確認して最新のリストを確認してください</t>
+          <t>接続されたマシンエージェントのインストールは、ほとんどの新しいWindowsおよびLinuxオペレーティングシステムでサポートされています、最新のリストへのリンクを確認してください</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1346,12 +1311,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>インストールをサポートするために Windows および Linux サーバーにインストールされているソフトウェアが必要です。</t>
+          <t>インストールをサポートするために、WindowsおよびLinuxサーバにインストールされているソフトウェアが必要です</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>エージェントのインストールにはソフトウェア要件があります。インストール後にシステムの再起動が必要な場合があります。</t>
+          <t>エージェントのインストールにはソフトウェア要件があります。インストール後にシステムの再起動が必要な場合がありますので、リンクを確認してください</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1396,7 +1361,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンを使用していることを確認する</t>
+          <t>サポートされている Azure リージョンを使用していることを確認してください</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1442,12 +1407,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>リソースの Azure 管理の構造を定義する</t>
+          <t>Azure のリソース管理の構造を定義する</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>スコープには、管理グループ、サブスクリプション、およびリソース グループへの組織が含まれます。</t>
+          <t>スコープには、管理グループ、サブスクリプション、リソース グループへの組織が含まれます。</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1497,7 +1462,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>サーバー管理に必要なサーバー/リソース グループに RBAC ルールを定義し、Azure の Azure Arc 対応サーバー リソースの管理には "Azure 接続マシン リソース管理者" または "ハイブリッド サーバー リソース管理者" ロールで十分です。</t>
+          <t>サーバー管理に必要なサーバー/リソース グループへの RBAC ルールを定義すると、Azure で Azure Arc 対応サーバー リソースを管理するには、"Azure Connected Machine Resource Administrator" または "Hybrid Server Resource Administrator" ロールで十分です</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1542,7 +1507,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションが Azure リソースにアクセスするためにマネージド ID を使用することを検討してください (リンクの Key Vault の例など)</t>
+          <t>リンクの Key Vault の例のような Azure リソースにアクセスするために、アプリケーションにマネージド ID を使用することを検討してください</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1593,7 +1558,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションは、同じ Azure AD テナントの親である必要があります</t>
+          <t>Azure サブスクリプションは、同じ Azure AD テナントを親にする必要があります</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1643,7 +1608,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>ユーザー (または SP) は、サーバーのオンボードに "Azure コネクテッド マシンのオンボード" または "共同作成者" ロールが必要です。</t>
+          <t>ユーザー (または SP) は、サーバーのオンボードに "Azure Connected Machine Onboarding" または "Contributor" ロールが必要です</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1693,7 +1658,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>役割の実行に必要な権限をユーザーまたはグループにのみ追加してください</t>
+          <t>ユーザーまたはグループには、そのロールを実行するために必要な権限のみを追加してください</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1743,7 +1708,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>サーバーの大規模なオンボーディングには、"Azure 接続済みマシンのオンボード" ロールを持つサービス プリンシパルが必要であり、オンボーディングが異なるチーム/分散管理によって行われる場合は、より多くの SP を検討してください</t>
+          <t>サーバーの大規模なオンボーディングには、「Azure Connected Machine Onboarding」ロールのサービス原則が必要であり、オンボーディングが異なるチーム/分散型管理によって行われる場合は、より多くの SP を検討してください</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1793,7 +1758,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>リソースの作成を制御するために、リソース グループ レベルで "Azure 接続済みコンピューターのオンボード" ロールの権限を割り当てることを検討してください</t>
+          <t>リソースの作成を制御するために、リソース グループ レベルで "Azure Connected Machine Onboarding" ロールの権限を割り当てることを検討してください</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1838,12 +1803,12 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>エージェント プロビジョニングの戦略を定義する</t>
+          <t>エージェントのプロビジョニングの戦略を定義する</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>大規模なエージェント展開を計画する</t>
+          <t>大規模なエージェントのデプロイを計画する</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1893,7 +1858,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Update を使用して、接続されているマシンエージェントが常に最新であることを確認します。</t>
+          <t>Microsoft Update を使用して、接続されているマシン エージェントが常に最新の状態であることを確認します</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1938,12 +1903,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>拡張機能のインストール戦略を定義する</t>
+          <t>拡張機能のインストールの戦略を定義する</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy または Azure DevOps などの別の自動化ツールを使用することをお勧めします - 重要なのは、構成のずれを回避することです。</t>
+          <t>Azure Policy、または Azure DevOps などの別の自動化ツールを使用することをお勧めします - 重要なのは、構成のドリフトを回避することです。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1988,12 +1953,12 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>拡張機能の更新戦略を定義する</t>
+          <t>拡張機能の更新の戦略を定義する</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>利用可能な場合は自動アップグレードを使用し、自動アップグレードをサポートしていないすべての拡張機能の更新戦略を定義します。</t>
+          <t>可能な場合は自動アップグレードを使用し、自動アップグレードをサポートしていないすべての拡張機能の更新戦略を定義します。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2038,12 +2003,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure 自動管理を使用して設定を制御し、サーバーでの構成のずれを回避することを検討してください</t>
+          <t>Azure Machine Configuration を使用して設定を制御し、サーバーでの構成のずれを回避することを検討してください</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure 自動管理は、Azure でのサーバー管理に関するマイクロソフトのベスト プラクティスの実装に役立ちます</t>
+          <t>Azure でのサーバー管理に関する Microsoft のベスト プラクティスを実装するのに役立つ Azure マシン構成</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automanage/automanage-arc</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2087,7 +2052,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>応答しないエージェントを監視する</t>
+          <t>応答しないエージェントの監視</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2132,7 +2097,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>メトリックとログを Log Analytics ワークスペースに送信する監視戦略を設計する</t>
+          <t>メトリックとログを Log Analytics ワークスペースに送信するための監視戦略を設計する</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2222,7 +2187,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>コンプライアンスと運用の監視に Azure Monitor を使用する</t>
+          <t>Azure Monitor を使用してコンプライアンスと運用の監視を行う</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2267,7 +2232,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>最新バージョンの Azure 接続マシン エージェントを使用していない Azure Arc 対応サーバーを識別するアラートを作成する</t>
+          <t>最新バージョンの Azure Connected Machine Agent を使用していない Azure Arc 対応サーバーを特定するアラートを作成する</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2318,7 +2283,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理または新しい更新管理センター (プレビュー) 機能を使用して、サーバーの更新管理を確実にする</t>
+          <t>Azure Update Manager を使用して、Azure Arc 対応サーバー全体で大規模な更新を管理およびスケジュールします</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2334,7 +2299,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/hybrid/server/best-practices/arc-update-management</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview%2Cwindows-maintenance</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2368,7 +2333,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>接続されたマシンエージェントは、デフォルトでHTTPS(TCPポート443)を使用したパブリックインターネット接続を介してAzureサービスと通信します</t>
+          <t>Connected Machine Agent は、既定では、HTTPS (TCP ポート 443) を使用してパブリック インターネット接続経由で Azure サービスと通信します</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2413,12 +2378,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>プロキシサーバーは、パブリックインターネットを介した通信に必要ですか</t>
+          <t>パブリックインターネット経由の通信に必要なプロキシサーバーですか</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>接続されたマシンエージェントはプロキシサーバーを使用するように構成できるため、ローカルシステムで「azcmagent config set proxy.url」コマンドを使用してプロキシサーバーアドレスを定義することをお勧めします。</t>
+          <t>Connected Machine Agent はプロキシ サーバーを使用するように構成できますが、ローカル システムで 'azcmagent config set proxy.url' コマンドを使用してプロキシ サーバー アドレスを定義することをお勧めします。</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2463,12 +2428,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>プライベート(パブリックインターネットではない)接続が必要ですか?</t>
+          <t>プライベート(パブリックインターネットではない)接続は必要ですか?</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>接続されたマシン エージェントは、既存の ExpressRoute または VPN 接続を介して Azure サービスとの通信にプライベート リンクを使用できます。</t>
+          <t>Connected Machine Agent は、既存の ExpressRoute または VPN 接続を介した Azure サービスとの通信に Private Link を使用できます</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2513,12 +2478,12 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスとの通信を確保するためにファイアウォール構成は必要ですか?</t>
+          <t>Azure サービスとの通信を確保するために、ファイアウォールの構成は必要ですか?</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>エージェントが Azure と通信するにはファイアウォールの構成が必要な場合があり、リンクを使用して必要な ServiceTags や URL を確認します。</t>
+          <t>エージェントが Azure と通信するには、ファイアウォールの構成が必要な場合があり、リンクを使用して ServiceTag や必要な URL を確認します</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2563,12 +2528,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>サービスタグまたはIPアドレスが変更された場合、ファイアウォールまたはプロキシルールを自動的に更新できますか</t>
+          <t>ファイアウォールまたはプロキシのルールは、サービスタグまたはIPアドレスが変更された場合に自動更新できますか?</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>問題のシステムで使用可能な自動化ツールを使用して、Azure エンドポイントを定期的に更新する</t>
+          <t>問題のシステムで利用可能な自動化ツールを使用して、Azure エンドポイントを定期的に更新します</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2613,12 +2578,12 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>可能な限り、常に Azure のセキュリティで保護された通信を使用する</t>
+          <t>可能な限り、常に Azure の安全な通信を使用してください</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>トランスポート層セキュリティ (TLS) バージョン 1.2 を使用するようにサーバーを構成する</t>
+          <t>Transport Layer Security (TLS) バージョン 1.2 を使用するようにサーバーを構成する</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2668,7 +2633,7 @@
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>すべての拡張機能 (ログ分析など) には個別のネットワーク要件があるため、必ずネットワーク設計にすべてを含めてください。</t>
+          <t>すべての拡張機能 (ログ分析など) には個別のネットワーク要件があるため、ネットワーク設計にすべてを含めるようにしてください。</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2713,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用してハイブリッド接続サーバーのガバナンス モデルを実装する</t>
+          <t>Azure Policy を使用して、ハイブリッド接続サーバーのガバナンス モデルを実装する</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2759,7 +2724,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>ゲスト OS 構成でのマシン構成の使用を検討する</t>
+          <t>ゲスト OS 構成でマシン構成の使用を検討する</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2851,7 +2816,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>サーバー上で行われた変更の追跡に変更の追跡の使用を検討する</t>
+          <t>サーバー上で行われた変更を追跡するために、変更追跡を使用することを検討してください</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2942,7 +2907,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>サーバー上の証明書管理に Azure Key Vault を使用する</t>
+          <t>Azure Key Vault を使用してサーバー上の証明書を管理する</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2988,12 +2953,12 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SPが使用するシークレットの許容可能な有効期間はどれくらいですか</t>
+          <t>SPが使用するシークレットの許容寿命はどれくらいですか</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>有効期間が短い Azure AD サービス プリンシパルのクライアント シークレットの使用を検討してください。</t>
+          <t>有効期間の短い Azure AD サービス プリンシパル クライアント シークレットの使用を検討してください。</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3043,7 +3008,7 @@
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>秘密キーがディスクに保存され、ディスク暗号化を使用して保護されていることを確認します</t>
+          <t>秘密鍵はディスクに保存され、ディスク暗号化を使用して保護されていることを確認します</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -3087,12 +3052,12 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>エージェントのインストールを実行するためのローカル管理者アクセス権があることを確認する</t>
+          <t>エージェントのインストールを実行するためのローカル管理者アクセス権があることを確認します</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>ローカル管理者は、Windows および Linux システムにコネクテッドマシンエージェントをインストールする必要があります。</t>
+          <t>Connected Machine Agent を Windows および Linux システムにインストールするには、ローカル管理者が必要です</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3141,7 +3106,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Windows のローカル管理者グループのメンバーと Linux のルート権限を持つユーザーは、コマンドラインからエージェントを管理する権限を持ちます。</t>
+          <t>Windows のローカル管理者グループのメンバーと Linux のルート権限を持つユーザーは、コマンドラインを使用してエージェントを管理する権限を持っています。</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3186,7 +3151,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションのマネージド ID へのアクセスの使用と制限を検討してください。</t>
+          <t>アプリケーションのマネージド ID の使用とアクセスの制限を検討してください。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3232,12 +3197,12 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>すべてのサーバーに対して Defender for Server を有効にして、ハイブリッド ワークロードを脅威から保護する</t>
+          <t>すべてのサーバーで Defender for Servers を有効にして、ハイブリッド ワークロードを脅威から保護します</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>エンドポイントまたは別の AV および EDR ソリューションに Defender を使用してエンドポイントを保護する</t>
+          <t>Defender for Endpoint または別の AV および EDR ソリューションを使用してエンドポイントを保護する</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3282,7 +3247,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>セキュリティの構成ミスを検出し、コンプライアンスを追跡するコントロールを定義する</t>
+          <t>セキュリティの設定ミスを検出し、コンプライアンスを追跡するための制御を定義する</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3323,7 +3288,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>許可リストまたはブロックリストを使用して、Azure Arc 対応サーバーにインストールできる拡張機能を制御する</t>
+          <t>許可リストまたはブロックリストを使用して、Azure Arc 対応サーバーにインストールできる拡張機能を制御します</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -7193,20 +7158,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -7216,121 +7279,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7440,7 +7388,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ確認されていません</t>
+          <t>このチェックはまだ見ていません</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7467,7 +7415,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7494,7 +7442,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みであり、これ以上のアクション アイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7516,7 +7464,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7538,7 +7486,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在のデザインには適用できません</t>
+          <t>現在のデザインには適用されません</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
